--- a/excel_files/4.4.1.xlsx
+++ b/excel_files/4.4.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="182">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -561,37 +561,16 @@
     <t>Бай</t>
   </si>
   <si>
-    <t>электрондук  таблицада  базалык арифметикалык формула менен колдонушкан</t>
-  </si>
-  <si>
-    <t>тиркелген файл, мисалы, документ, сүрөт же видео менен электрондук кат жөнөтүшкөн</t>
-  </si>
-  <si>
-    <t>документтин ичиндеги маалыматты  көчүрүп алуу же башка жерге которуу үчүн "көчүрүү-коюу" функциясын колдонушкан</t>
-  </si>
-  <si>
-    <t>файлды же папканы көчүрүп алышкан же башка жерге которушкан</t>
-  </si>
-  <si>
-    <t>программалык камсыздоону издешкен, жүктөшкөн, орнотушкан жана настройкалашкан</t>
-  </si>
-  <si>
-    <t>өзүнө тексттерди, сүрөттөрдү, аудио, видео, же графиканы камтыган презентацияларды түзүү үчүн программанын жардамы менен электрондук презентация түзүшкөн</t>
-  </si>
-  <si>
-    <t>компьютер жана башка түзүлүштүн ортосунда файлды ары-бери которуп жүрүшкөн</t>
-  </si>
-  <si>
-    <t>компьютердик программаны кайсы бир программалоо тилинде жазышкан</t>
-  </si>
-  <si>
-    <t>компьтер менен иштөөдө көрсөтүлгөн тогуз иштен минимум бирөөнү аткарышкан</t>
-  </si>
-  <si>
-    <t>аялдардын саны</t>
-  </si>
-  <si>
-    <t>жаңы түзүлүштү, мисалы, модем, камера же принтерди туташтырышкан же орнотушкан</t>
+    <t>пользовались функцией «копирование - вставка» для копирования или перемещения информации внутри документа</t>
+  </si>
+  <si>
+    <t>подключал и и устанавливали новое устройство, например, модем, камеру или принтер</t>
+  </si>
+  <si>
+    <t>выполняли как минимум одно из указанных девяти действий с компьютером</t>
+  </si>
+  <si>
+    <t>Число женщин</t>
   </si>
 </sst>
 </file>
@@ -9031,7 +9010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R592"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9089,37 +9070,37 @@
         <v>2</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4" s="32" t="s">
         <v>181</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>187</v>
       </c>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>

--- a/excel_files/4.4.1.xlsx
+++ b/excel_files/4.4.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="170">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -72,33 +72,6 @@
     <t>писали компьютерную программу на каком-нибудь языке программирования</t>
   </si>
   <si>
-    <t>17,1</t>
-  </si>
-  <si>
-    <t>16,9</t>
-  </si>
-  <si>
-    <t>15,4</t>
-  </si>
-  <si>
-    <t>9,7</t>
-  </si>
-  <si>
-    <t>6,2</t>
-  </si>
-  <si>
-    <t>5,8</t>
-  </si>
-  <si>
-    <t>8,9</t>
-  </si>
-  <si>
-    <t>8,4</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
     <t xml:space="preserve">файл же папканы көчүргөн же жайгаштырган </t>
   </si>
   <si>
@@ -124,33 +97,6 @@
   </si>
   <si>
     <t>программалоонун кайсы бир тилинде компьютердик программаны жазган</t>
-  </si>
-  <si>
-    <t>23,8</t>
-  </si>
-  <si>
-    <t>23,4</t>
-  </si>
-  <si>
-    <t>21,2</t>
-  </si>
-  <si>
-    <t>13,6</t>
-  </si>
-  <si>
-    <t>7,3</t>
-  </si>
-  <si>
-    <t>7,5</t>
-  </si>
-  <si>
-    <t>13,2</t>
-  </si>
-  <si>
-    <t>12,1</t>
-  </si>
-  <si>
-    <t>3,2</t>
   </si>
   <si>
     <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж.</t>
@@ -192,19 +138,7 @@
     <t>4.4.1 Proportion of youth and adults with information and communications technology (ICT) skills, by type of skill</t>
   </si>
   <si>
-    <t>4.4.1. Доля молодежи/ взрослых, обладающей/ обладающих навыками в области информационно-коммуникационных технологий, в разбивке по видам навыков</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Proportion of youth and adults with information and communications technology (ICT) skills, by type of skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Доля молодежи/ взрослых, обладающей/ обладающих навыками в области информационно-коммуникационных технологий, в разбивке по видам навыков</t>
-  </si>
-  <si>
     <t>4.4.1 Маалыматтык-коммуникациялык технологиялар (МКТ) жаатындагы көндүмдөргө ээ/ээ болгон жаштардын/чоңдордун көндүмдөрдүн түрлөрү боюнча үлүшү</t>
-  </si>
-  <si>
-    <t>Маалыматтык-коммуникациялык технологиялар (МКТ) жаатындагы көндүмдөргө ээ/ээ болгон жаштардын/чоңдордун көндүмдөрдүн түрлөрү боюнча үлүшү</t>
   </si>
   <si>
     <t>Всего</t>
@@ -572,6 +506,36 @@
   <si>
     <t>Число женщин</t>
   </si>
+  <si>
+    <t>Көндүмдөрдүн түрлөрү боюнча бөлүнүшүндөгү маалыматтык-коммуникациялык технологиялар (МКТ) жаатында көндүмдөргө ээ болгон 15-24 жаштагы аялдардын  үлүшү</t>
+  </si>
+  <si>
+    <t>Доля женщин в возрасте от 15-24 лет, обладающих навыками в области информационно-коммуникационных технологий, в разбивке по видам навыков</t>
+  </si>
+  <si>
+    <t>Proportion of women aged 15-24 with information and communications technology (ICT) skills, by type of skill</t>
+  </si>
+  <si>
+    <t>Көндүмдөрдүн түрлөрү боюнча бөлүнүшүндөгү маалыматтык-коммуникациялык технологиялар (МКТ) жаатында көндүмдөргө ээ болгон 15-49 жаштагы аялдардын  үлүшү</t>
+  </si>
+  <si>
+    <t>Доля женщин в возрасте от 15-49 лет, обладающих навыками в области информационно-коммуникационных технологий, в разбивке по видам навыков</t>
+  </si>
+  <si>
+    <t>Proportion of women aged 15-49 with information and communications technology (ICT) skills, by type of skill</t>
+  </si>
+  <si>
+    <t>4.4.1 Доля молодежи/ взрослых, обладающей/ обладающих навыками в области информационно-коммуникационных технологий, в разбивке по видам навыков</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж., 2023-ж.</t>
+  </si>
+  <si>
+    <t>По данным кластерного обследования по многим показателям, 2018г., 2023г.</t>
+  </si>
+  <si>
+    <t>According to the cluster survey in many respects, 2018, 2023</t>
+  </si>
 </sst>
 </file>
 
@@ -580,7 +544,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +632,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -726,7 +697,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -764,16 +735,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -857,6 +821,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8633,27 +8612,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="1" max="3" width="37.5703125" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>58</v>
+      <c r="A1" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8681,322 +8657,375 @@
       <c r="D4" s="3">
         <v>2018</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>56</v>
+      <c r="E4" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>162</v>
       </c>
       <c r="D5" s="12">
         <v>29.7</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="12">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D6" s="46">
+        <v>23.8</v>
+      </c>
+      <c r="E6" s="46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="D7" s="46">
+        <v>23.4</v>
+      </c>
+      <c r="E7" s="46">
+        <v>23.9</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="D8" s="46">
+        <v>21.2</v>
+      </c>
+      <c r="E8" s="46">
+        <v>19.5</v>
+      </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="D9" s="46">
+        <v>13.6</v>
+      </c>
+      <c r="E9" s="46">
+        <v>12.8</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="D10" s="46">
+        <v>7.3</v>
+      </c>
+      <c r="E10" s="46">
+        <v>9</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="46">
+        <v>7.5</v>
+      </c>
+      <c r="E11" s="46">
+        <v>7.2</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="D12" s="46">
+        <v>13.2</v>
+      </c>
+      <c r="E12" s="46">
+        <v>11.9</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="D13" s="46">
+        <v>12.1</v>
+      </c>
+      <c r="E13" s="46">
+        <v>10.7</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="D14" s="46">
+        <v>3.2</v>
+      </c>
+      <c r="E14" s="46">
+        <v>1.4</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="16">
+    <row r="15" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="15">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D16" s="46">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E16" s="46">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="36.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D17" s="46">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E17" s="46">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D18" s="46">
+        <v>15.4</v>
+      </c>
+      <c r="E18" s="46">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D19" s="46">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E19" s="46">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D20" s="46">
+        <v>6.2</v>
+      </c>
+      <c r="E20" s="46">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="48.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D21" s="46">
+        <v>5.8</v>
+      </c>
+      <c r="E21" s="46">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="24.75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D22" s="46">
+        <v>8.9</v>
+      </c>
+      <c r="E22" s="46">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D23" s="46">
+        <v>8.4</v>
+      </c>
+      <c r="E23" s="46">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D24" s="47">
+        <v>2</v>
+      </c>
+      <c r="E24" s="47">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -9010,7 +9039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R592"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -9033,14 +9062,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>143</v>
+      <c r="A1" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>142</v>
+        <v>119</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -9055,9 +9084,9 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:16" ht="96.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -9069,97 +9098,97 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="32" t="s">
+      <c r="E4" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="32" t="s">
+      <c r="H4" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-    </row>
-    <row r="5" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="25">
+      <c r="M4" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="22">
         <v>17.100000000000001</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <v>16.899999999999999</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <v>15.4</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="22">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="22">
         <v>6.2</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="22">
         <v>5.8</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="22">
         <v>8.9</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="22">
         <v>8.4</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="28">
         <v>2</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="28">
         <v>21</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="22">
         <v>5742</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>110</v>
+      <c r="A6" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -9175,13 +9204,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D7" s="9">
         <v>24.5</v>
@@ -9221,13 +9250,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D8" s="9">
         <v>12.4</v>
@@ -9266,14 +9295,14 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>108</v>
+      <c r="A9" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -9290,14 +9319,14 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>159</v>
+      <c r="A10" s="41" t="s">
+        <v>137</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>112</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>90</v>
       </c>
       <c r="D10" s="9">
         <v>4.9000000000000004</v>
@@ -9314,10 +9343,10 @@
       <c r="H10" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="25">
         <v>2</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="25">
         <v>3</v>
       </c>
       <c r="K10" s="9">
@@ -9336,14 +9365,14 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>160</v>
+      <c r="A11" s="41" t="s">
+        <v>138</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>113</v>
+        <v>44</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="D11" s="9">
         <v>9.9</v>
@@ -9363,7 +9392,7 @@
       <c r="I11" s="9">
         <v>3.5</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="25">
         <v>6</v>
       </c>
       <c r="K11" s="9">
@@ -9372,7 +9401,7 @@
       <c r="L11" s="9">
         <v>1.3</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="25">
         <v>11</v>
       </c>
       <c r="N11" s="9">
@@ -9382,14 +9411,14 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>161</v>
+      <c r="A12" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>114</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="D12" s="9">
         <v>12.7</v>
@@ -9428,14 +9457,14 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
-        <v>162</v>
+      <c r="A13" s="41" t="s">
+        <v>140</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>115</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D13" s="9">
         <v>10.1</v>
@@ -9452,10 +9481,10 @@
       <c r="H13" s="9">
         <v>7.3</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="25">
         <v>5</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="25">
         <v>8</v>
       </c>
       <c r="K13" s="9">
@@ -9474,60 +9503,60 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>163</v>
+      <c r="A14" s="41" t="s">
+        <v>141</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="21">
+        <v>47</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="18">
         <v>11.8</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>10.7</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="18">
         <v>6.7</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="18">
         <v>3.2</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="18">
         <v>1.7</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="24">
         <v>6</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="24">
         <v>2</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="18">
         <v>1.8</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="18">
         <v>13.8</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="18">
         <v>1188</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>117</v>
+      <c r="A15" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="D15" s="9">
         <v>12.2</v>
@@ -9566,14 +9595,14 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>165</v>
+      <c r="A16" s="41" t="s">
+        <v>143</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>118</v>
+        <v>49</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="D16" s="9">
         <v>22.1</v>
@@ -9593,7 +9622,7 @@
       <c r="I16" s="9">
         <v>6.1</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="25">
         <v>9</v>
       </c>
       <c r="K16" s="9">
@@ -9612,14 +9641,14 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>166</v>
+      <c r="A17" s="42" t="s">
+        <v>144</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>119</v>
+        <v>50</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>97</v>
       </c>
       <c r="D17" s="9">
         <v>32.4</v>
@@ -9636,7 +9665,7 @@
       <c r="H17" s="9">
         <v>11.7</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="25">
         <v>14</v>
       </c>
       <c r="J17" s="9">
@@ -9658,14 +9687,14 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>167</v>
+      <c r="A18" s="42" t="s">
+        <v>145</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>109</v>
+        <v>51</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="D18" s="9">
         <v>12.1</v>
@@ -9694,7 +9723,7 @@
       <c r="L18" s="9">
         <v>0.5</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="25">
         <v>15</v>
       </c>
       <c r="N18" s="9">
@@ -9704,14 +9733,14 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>120</v>
+      <c r="A19" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -9729,13 +9758,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D20" s="9">
         <v>23.8</v>
@@ -9775,13 +9804,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D21" s="9">
         <v>27.8</v>
@@ -9804,7 +9833,7 @@
       <c r="J21" s="9">
         <v>14.8</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="25">
         <v>14</v>
       </c>
       <c r="L21" s="9">
@@ -9821,13 +9850,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D22" s="9">
         <v>26.7</v>
@@ -9856,7 +9885,7 @@
       <c r="L22" s="9">
         <v>4.3</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="25">
         <v>33</v>
       </c>
       <c r="N22" s="9">
@@ -9867,13 +9896,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D23" s="9">
         <v>29.9</v>
@@ -9896,7 +9925,7 @@
       <c r="J23" s="9">
         <v>19.2</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="25">
         <v>19</v>
       </c>
       <c r="L23" s="9">
@@ -9913,59 +9942,59 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="21">
+        <v>57</v>
+      </c>
+      <c r="D24" s="18">
         <v>20.100000000000001</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="18">
         <v>19.8</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="18">
         <v>18.399999999999999</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="18">
         <v>12.1</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="18">
         <v>5.6</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="18">
         <v>6.8</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="18">
         <v>11.8</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="18">
         <v>10.3</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="18">
         <v>3.3</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="18">
         <v>24.2</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="18">
         <v>876</v>
       </c>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>80</v>
+      <c r="A25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="D25" s="9">
         <v>15.2</v>
@@ -9976,7 +10005,7 @@
       <c r="F25" s="9">
         <v>13.4</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="25">
         <v>9</v>
       </c>
       <c r="H25" s="9">
@@ -10005,61 +10034,61 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="27">
+        <v>59</v>
+      </c>
+      <c r="D26" s="24">
         <v>18</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="18">
         <v>18.3</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="24">
         <v>16</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="18">
         <v>10.4</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="18">
         <v>8.1</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="18">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="18">
         <v>10.199999999999999</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="24">
         <v>9</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="18">
         <v>2.4</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="18">
         <v>21.5</v>
       </c>
-      <c r="N26" s="21">
+      <c r="N26" s="18">
         <v>888</v>
       </c>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="28">
+        <v>60</v>
+      </c>
+      <c r="D27" s="25">
         <v>15</v>
       </c>
       <c r="E27" s="9">
@@ -10097,18 +10126,18 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D28" s="9">
         <v>14.5</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="25">
         <v>13</v>
       </c>
       <c r="F28" s="9">
@@ -10143,13 +10172,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D29" s="9">
         <v>7.5</v>
@@ -10169,7 +10198,7 @@
       <c r="I29" s="9">
         <v>2.1</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="25">
         <v>3</v>
       </c>
       <c r="K29" s="9">
@@ -10188,14 +10217,14 @@
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>121</v>
+      <c r="A30" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -10203,1323 +10232,1323 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="28"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="28"/>
+      <c r="M30" s="25"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
-        <v>152</v>
+      <c r="A31" s="40" t="s">
+        <v>130</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="J31" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="L31" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="M31" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="N31" s="37">
+        <v>100</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="L31" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" s="34">
         <v>18</v>
       </c>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
-        <v>153</v>
+      <c r="A32" s="40" t="s">
+        <v>131</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="28">
+        <v>101</v>
+      </c>
+      <c r="D32" s="25">
         <v>6.2</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="25">
         <v>5</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="25">
         <v>5.5</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="25">
         <v>4</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="25">
         <v>2.4</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="25">
         <v>1.5</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="25">
         <v>3.2</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="25">
         <v>2.9</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="25">
         <v>1.2</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="25">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N32" s="30">
+      <c r="N32" s="27">
         <v>613</v>
       </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
-        <v>154</v>
+      <c r="A33" s="40" t="s">
+        <v>132</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="27">
+        <v>102</v>
+      </c>
+      <c r="D33" s="24">
         <v>6.4</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="24">
         <v>6.2</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="24">
         <v>6.3</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="24">
         <v>3.3</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="24">
         <v>1.9</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="24">
         <v>2</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J33" s="24">
         <v>3</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K33" s="24">
         <v>2.7</v>
       </c>
-      <c r="L33" s="27">
+      <c r="L33" s="24">
         <v>0.7</v>
       </c>
-      <c r="M33" s="27">
+      <c r="M33" s="24">
         <v>8.4</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="26">
         <v>2283</v>
       </c>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
-        <v>155</v>
+      <c r="A34" s="40" t="s">
+        <v>133</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="28">
+        <v>103</v>
+      </c>
+      <c r="D34" s="25">
         <v>12.6</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="25">
         <v>11.7</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="25">
         <v>10.6</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="25">
         <v>5.9</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="25">
         <v>4</v>
       </c>
-      <c r="J34" s="28">
+      <c r="J34" s="25">
         <v>5.9</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="25">
         <v>5.4</v>
       </c>
-      <c r="L34" s="28">
+      <c r="L34" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M34" s="28">
+      <c r="M34" s="25">
         <v>16.8</v>
       </c>
-      <c r="N34" s="30">
+      <c r="N34" s="27">
         <v>1164</v>
       </c>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
-        <v>156</v>
+      <c r="A35" s="40" t="s">
+        <v>134</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="28">
+        <v>104</v>
+      </c>
+      <c r="D35" s="25">
         <v>39.299999999999997</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="25">
         <v>39.9</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="25">
         <v>35</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="25">
         <v>23.4</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="25">
         <v>14.8</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="25">
         <v>13.8</v>
       </c>
-      <c r="J35" s="28">
+      <c r="J35" s="25">
         <v>21.1</v>
       </c>
-      <c r="K35" s="28">
+      <c r="K35" s="25">
         <v>20.399999999999999</v>
       </c>
-      <c r="L35" s="28">
+      <c r="L35" s="25">
         <v>4.8</v>
       </c>
-      <c r="M35" s="28">
+      <c r="M35" s="25">
         <v>45.8</v>
       </c>
-      <c r="N35" s="30">
+      <c r="N35" s="27">
         <v>1665</v>
       </c>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
     </row>
     <row r="36" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
+      <c r="A36" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="28">
+        <v>107</v>
+      </c>
+      <c r="D37" s="25">
         <v>6.4</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="25">
         <v>6.7</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="25">
         <v>4.5</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="25">
         <v>6.4</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="25">
         <v>2.7</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="25">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J37" s="28">
+      <c r="J37" s="25">
         <v>3</v>
       </c>
-      <c r="K37" s="28">
+      <c r="K37" s="25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L37" s="28">
+      <c r="L37" s="25">
         <v>0</v>
       </c>
-      <c r="M37" s="28">
+      <c r="M37" s="25">
         <v>9.4</v>
       </c>
-      <c r="N37" s="30">
+      <c r="N37" s="27">
         <v>132</v>
       </c>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="28">
+        <v>106</v>
+      </c>
+      <c r="D38" s="25">
         <v>16.399999999999999</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="25">
         <v>16.3</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="25">
         <v>14.9</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="25">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="25">
         <v>6.2</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="25">
         <v>5.6</v>
       </c>
-      <c r="J38" s="28">
+      <c r="J38" s="25">
         <v>8.6</v>
       </c>
-      <c r="K38" s="28">
+      <c r="K38" s="25">
         <v>8.1</v>
       </c>
-      <c r="L38" s="28">
+      <c r="L38" s="25">
         <v>1.8</v>
       </c>
-      <c r="M38" s="28">
+      <c r="M38" s="25">
         <v>20</v>
       </c>
-      <c r="N38" s="30">
+      <c r="N38" s="27">
         <v>5055</v>
       </c>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
+      <c r="A39" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="28">
+        <v>109</v>
+      </c>
+      <c r="D40" s="25">
         <v>17.399999999999999</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="25">
         <v>17.2</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="25">
         <v>15.5</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="25">
         <v>10.199999999999999</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="25">
         <v>6.5</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="25">
         <v>5.8</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="25">
         <v>9.4</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K40" s="25">
         <v>8.4</v>
       </c>
-      <c r="L40" s="28">
+      <c r="L40" s="25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M40" s="28">
+      <c r="M40" s="25">
         <v>21.5</v>
       </c>
-      <c r="N40" s="30">
+      <c r="N40" s="27">
         <v>4251</v>
       </c>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="28">
+        <v>110</v>
+      </c>
+      <c r="D41" s="25">
         <v>46.9</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="25">
         <v>43.8</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="25">
         <v>43</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="25">
         <v>22.9</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="25">
         <v>13.4</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="25">
         <v>15.7</v>
       </c>
-      <c r="J41" s="28">
+      <c r="J41" s="25">
         <v>18.7</v>
       </c>
-      <c r="K41" s="28">
+      <c r="K41" s="25">
         <v>23.3</v>
       </c>
-      <c r="L41" s="28">
+      <c r="L41" s="25">
         <v>3.2</v>
       </c>
-      <c r="M41" s="28">
+      <c r="M41" s="25">
         <v>52.9</v>
       </c>
-      <c r="N41" s="30">
+      <c r="N41" s="27">
         <v>344</v>
       </c>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="28">
+        <v>111</v>
+      </c>
+      <c r="D42" s="25">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="25">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="25">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="25">
         <v>2.5</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H42" s="25">
         <v>1.3</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="25">
         <v>1.5</v>
       </c>
-      <c r="J42" s="28">
+      <c r="J42" s="25">
         <v>2.8</v>
       </c>
-      <c r="K42" s="28">
+      <c r="K42" s="25">
         <v>1.5</v>
       </c>
-      <c r="L42" s="28">
+      <c r="L42" s="25">
         <v>0.7</v>
       </c>
-      <c r="M42" s="28">
+      <c r="M42" s="25">
         <v>6.8</v>
       </c>
-      <c r="N42" s="30">
+      <c r="N42" s="27">
         <v>850</v>
       </c>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="27">
+        <v>112</v>
+      </c>
+      <c r="D43" s="24">
         <v>14</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="24">
         <v>15.3</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="24">
         <v>14.2</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="24">
         <v>8.6</v>
       </c>
-      <c r="H43" s="27">
+      <c r="H43" s="24">
         <v>7.7</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="24">
         <v>5.7</v>
       </c>
-      <c r="J43" s="27">
+      <c r="J43" s="24">
         <v>7</v>
       </c>
-      <c r="K43" s="27">
+      <c r="K43" s="24">
         <v>10.199999999999999</v>
       </c>
-      <c r="L43" s="27">
+      <c r="L43" s="24">
         <v>1.8</v>
       </c>
-      <c r="M43" s="27">
+      <c r="M43" s="24">
         <v>17.899999999999999</v>
       </c>
-      <c r="N43" s="29">
+      <c r="N43" s="26">
         <v>297</v>
       </c>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
+      <c r="A44" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="27">
+      <c r="A45" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="24">
         <v>5.9</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="24">
         <v>5.9</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="24">
         <v>4.5</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="24">
         <v>3.7</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="24">
         <v>1.5</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="24">
         <v>1.3</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J45" s="24">
         <v>3.3</v>
       </c>
-      <c r="K45" s="27">
+      <c r="K45" s="24">
         <v>1.3</v>
       </c>
-      <c r="L45" s="27">
+      <c r="L45" s="24">
         <v>0.5</v>
       </c>
-      <c r="M45" s="27">
+      <c r="M45" s="24">
         <v>7.1</v>
       </c>
-      <c r="N45" s="29">
+      <c r="N45" s="26">
         <v>1137</v>
       </c>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
-        <v>174</v>
+      <c r="A46" s="44" t="s">
+        <v>152</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="28">
+        <v>115</v>
+      </c>
+      <c r="D46" s="25">
         <v>10.3</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="25">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="25">
         <v>7.5</v>
       </c>
-      <c r="G46" s="28">
+      <c r="G46" s="25">
         <v>6.1</v>
       </c>
-      <c r="H46" s="28">
+      <c r="H46" s="25">
         <v>3.3</v>
       </c>
-      <c r="I46" s="28">
+      <c r="I46" s="25">
         <v>2.7</v>
       </c>
-      <c r="J46" s="28">
+      <c r="J46" s="25">
         <v>4.8</v>
       </c>
-      <c r="K46" s="28">
+      <c r="K46" s="25">
         <v>3.6</v>
       </c>
-      <c r="L46" s="28">
+      <c r="L46" s="25">
         <v>1.2</v>
       </c>
-      <c r="M46" s="28">
+      <c r="M46" s="25">
         <v>13.2</v>
       </c>
-      <c r="N46" s="30">
+      <c r="N46" s="27">
         <v>1084</v>
       </c>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
-        <v>175</v>
+      <c r="A47" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="28">
+        <v>116</v>
+      </c>
+      <c r="D47" s="25">
         <v>13.5</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="25">
         <v>12.5</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="25">
         <v>11.5</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G47" s="25">
         <v>7.8</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H47" s="25">
         <v>5.4</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="25">
         <v>3.4</v>
       </c>
-      <c r="J47" s="28">
+      <c r="J47" s="25">
         <v>6</v>
       </c>
-      <c r="K47" s="28">
+      <c r="K47" s="25">
         <v>6</v>
       </c>
-      <c r="L47" s="28">
+      <c r="L47" s="25">
         <v>1.5</v>
       </c>
-      <c r="M47" s="28">
+      <c r="M47" s="25">
         <v>15.5</v>
       </c>
-      <c r="N47" s="30">
+      <c r="N47" s="27">
         <v>1119</v>
       </c>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
-        <v>176</v>
+      <c r="A48" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="28">
+        <v>117</v>
+      </c>
+      <c r="D48" s="25">
         <v>18.5</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="25">
         <v>17.8</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="25">
         <v>14.3</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="25">
         <v>10.199999999999999</v>
       </c>
-      <c r="H48" s="28">
+      <c r="H48" s="25">
         <v>7.7</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I48" s="25">
         <v>6.4</v>
       </c>
-      <c r="J48" s="28">
+      <c r="J48" s="25">
         <v>10.199999999999999</v>
       </c>
-      <c r="K48" s="28">
+      <c r="K48" s="25">
         <v>9.1</v>
       </c>
-      <c r="L48" s="28">
+      <c r="L48" s="25">
         <v>2.5</v>
       </c>
-      <c r="M48" s="28">
+      <c r="M48" s="25">
         <v>22</v>
       </c>
-      <c r="N48" s="30">
+      <c r="N48" s="27">
         <v>1126</v>
       </c>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
     </row>
     <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="48" t="s">
-        <v>177</v>
+      <c r="A49" s="45" t="s">
+        <v>155</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="38">
+        <v>118</v>
+      </c>
+      <c r="D49" s="35">
         <v>34.9</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="35">
         <v>36.4</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="35">
         <v>36.200000000000003</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49" s="35">
         <v>19.399999999999999</v>
       </c>
-      <c r="H49" s="38">
+      <c r="H49" s="35">
         <v>12.4</v>
       </c>
-      <c r="I49" s="38">
+      <c r="I49" s="35">
         <v>14</v>
       </c>
-      <c r="J49" s="38">
+      <c r="J49" s="35">
         <v>18.5</v>
       </c>
-      <c r="K49" s="38">
+      <c r="K49" s="35">
         <v>20.2</v>
       </c>
-      <c r="L49" s="38">
+      <c r="L49" s="35">
         <v>4.2</v>
       </c>
-      <c r="M49" s="38">
+      <c r="M49" s="35">
         <v>44.2</v>
       </c>
-      <c r="N49" s="39">
+      <c r="N49" s="36">
         <v>1275</v>
       </c>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
     </row>
     <row r="50" spans="1:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
-        <v>42</v>
+      <c r="A50" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
+        <v>26</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="28"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="33"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
@@ -11550,7 +11579,7 @@
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="28"/>
+      <c r="K74" s="25"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
@@ -11570,7 +11599,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
-      <c r="M75" s="28"/>
+      <c r="M75" s="25"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
@@ -11586,7 +11615,7 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-      <c r="K76" s="28"/>
+      <c r="K76" s="25"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
@@ -11597,19 +11626,19 @@
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
@@ -11618,7 +11647,7 @@
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="28"/>
+      <c r="G78" s="25"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -11633,25 +11662,25 @@
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="27"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="24"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
-      <c r="D80" s="28"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -11661,7 +11690,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
-      <c r="N80" s="28"/>
+      <c r="N80" s="25"/>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
     </row>
@@ -11675,18 +11704,18 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="28"/>
+      <c r="J81" s="25"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
-      <c r="M81" s="28"/>
+      <c r="M81" s="25"/>
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
+      <c r="A82" s="19"/>
       <c r="B82" s="13"/>
-      <c r="C82" s="22"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -11710,8 +11739,8 @@
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
@@ -11723,19 +11752,19 @@
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
@@ -11765,7 +11794,7 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="28"/>
+      <c r="J86" s="25"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
@@ -11782,7 +11811,7 @@
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
-      <c r="I87" s="28"/>
+      <c r="I87" s="25"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
@@ -11804,7 +11833,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
-      <c r="M88" s="28"/>
+      <c r="M88" s="25"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
       <c r="P88" s="9"/>
@@ -11856,7 +11885,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
-      <c r="K91" s="28"/>
+      <c r="K91" s="25"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
@@ -11864,9 +11893,9 @@
       <c r="P91" s="9"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="13"/>
-      <c r="C92" s="22"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -11876,7 +11905,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
-      <c r="M92" s="28"/>
+      <c r="M92" s="25"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
       <c r="P92" s="9"/>
@@ -11892,7 +11921,7 @@
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
-      <c r="K93" s="28"/>
+      <c r="K93" s="25"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
@@ -11903,19 +11932,19 @@
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="21"/>
-      <c r="P94" s="21"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
@@ -11924,7 +11953,7 @@
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="28"/>
+      <c r="G95" s="25"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -11939,25 +11968,25 @@
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="21"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="21"/>
-      <c r="P96" s="27"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="24"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
-      <c r="D97" s="28"/>
+      <c r="D97" s="25"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -11967,7 +11996,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
-      <c r="N97" s="28"/>
+      <c r="N97" s="25"/>
       <c r="O97" s="9"/>
       <c r="P97" s="9"/>
     </row>
@@ -11981,10 +12010,10 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="28"/>
+      <c r="J98" s="25"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
-      <c r="M98" s="28"/>
+      <c r="M98" s="25"/>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
       <c r="P98" s="9"/>
@@ -12016,8 +12045,8 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
@@ -12029,24 +12058,24 @@
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="21"/>
-      <c r="P101" s="21"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="18"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
+      <c r="A102" s="19"/>
       <c r="B102" s="13"/>
-      <c r="C102" s="22"/>
+      <c r="C102" s="19"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
@@ -12071,7 +12100,7 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="28"/>
+      <c r="J103" s="25"/>
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
@@ -12088,7 +12117,7 @@
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
-      <c r="I104" s="28"/>
+      <c r="I104" s="25"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -12110,7 +12139,7 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
-      <c r="M105" s="28"/>
+      <c r="M105" s="25"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
@@ -12162,7 +12191,7 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
-      <c r="K108" s="28"/>
+      <c r="K108" s="25"/>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
@@ -12182,7 +12211,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
-      <c r="M109" s="28"/>
+      <c r="M109" s="25"/>
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
       <c r="P109" s="9"/>
@@ -12198,7 +12227,7 @@
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
-      <c r="K110" s="28"/>
+      <c r="K110" s="25"/>
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
@@ -12209,28 +12238,28 @@
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="21"/>
-      <c r="J111" s="21"/>
-      <c r="K111" s="21"/>
-      <c r="L111" s="21"/>
-      <c r="M111" s="21"/>
-      <c r="N111" s="21"/>
-      <c r="O111" s="21"/>
-      <c r="P111" s="21"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
+      <c r="O111" s="18"/>
+      <c r="P111" s="18"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
+      <c r="A112" s="19"/>
       <c r="B112" s="13"/>
-      <c r="C112" s="22"/>
+      <c r="C112" s="19"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="28"/>
+      <c r="G112" s="25"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -12245,25 +12274,25 @@
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
-      <c r="I113" s="21"/>
-      <c r="J113" s="21"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="21"/>
-      <c r="M113" s="21"/>
-      <c r="N113" s="27"/>
-      <c r="O113" s="21"/>
-      <c r="P113" s="27"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="24"/>
+      <c r="O113" s="18"/>
+      <c r="P113" s="24"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="28"/>
+      <c r="D114" s="25"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -12273,7 +12302,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
-      <c r="N114" s="28"/>
+      <c r="N114" s="25"/>
       <c r="O114" s="9"/>
       <c r="P114" s="9"/>
     </row>
@@ -12287,10 +12316,10 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="28"/>
+      <c r="J115" s="25"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
-      <c r="M115" s="28"/>
+      <c r="M115" s="25"/>
       <c r="N115" s="9"/>
       <c r="O115" s="9"/>
       <c r="P115" s="9"/>
@@ -12322,8 +12351,8 @@
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="28"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
@@ -12335,19 +12364,19 @@
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="21"/>
-      <c r="I118" s="21"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="21"/>
-      <c r="M118" s="21"/>
-      <c r="N118" s="21"/>
-      <c r="O118" s="21"/>
-      <c r="P118" s="21"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
@@ -12377,7 +12406,7 @@
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
-      <c r="J120" s="28"/>
+      <c r="J120" s="25"/>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
@@ -12394,7 +12423,7 @@
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
-      <c r="I121" s="28"/>
+      <c r="I121" s="25"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
@@ -12404,9 +12433,9 @@
       <c r="P121" s="9"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="22"/>
+      <c r="A122" s="19"/>
       <c r="B122" s="13"/>
-      <c r="C122" s="22"/>
+      <c r="C122" s="19"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -12416,7 +12445,7 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
-      <c r="M122" s="28"/>
+      <c r="M122" s="25"/>
       <c r="N122" s="9"/>
       <c r="O122" s="9"/>
       <c r="P122" s="9"/>
@@ -12468,7 +12497,7 @@
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
-      <c r="K125" s="28"/>
+      <c r="K125" s="25"/>
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
@@ -12488,7 +12517,7 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
-      <c r="M126" s="28"/>
+      <c r="M126" s="25"/>
       <c r="N126" s="9"/>
       <c r="O126" s="9"/>
       <c r="P126" s="9"/>
@@ -12504,7 +12533,7 @@
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
-      <c r="K127" s="28"/>
+      <c r="K127" s="25"/>
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
       <c r="N127" s="9"/>
@@ -12515,19 +12544,19 @@
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
-      <c r="J128" s="21"/>
-      <c r="K128" s="21"/>
-      <c r="L128" s="21"/>
-      <c r="M128" s="21"/>
-      <c r="N128" s="21"/>
-      <c r="O128" s="21"/>
-      <c r="P128" s="21"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
@@ -12536,7 +12565,7 @@
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="28"/>
+      <c r="G129" s="25"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -12551,25 +12580,25 @@
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="21"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="21"/>
-      <c r="J130" s="21"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="21"/>
-      <c r="M130" s="21"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="21"/>
-      <c r="P130" s="27"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="24"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="18"/>
+      <c r="N130" s="24"/>
+      <c r="O130" s="18"/>
+      <c r="P130" s="24"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="28"/>
+      <c r="D131" s="25"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -12579,24 +12608,24 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
-      <c r="N131" s="28"/>
+      <c r="N131" s="25"/>
       <c r="O131" s="9"/>
       <c r="P131" s="9"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="21"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="21"/>
+      <c r="A132" s="18"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="18"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="28"/>
+      <c r="J132" s="25"/>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
-      <c r="M132" s="28"/>
+      <c r="M132" s="25"/>
       <c r="N132" s="9"/>
       <c r="O132" s="9"/>
       <c r="P132" s="9"/>
@@ -12628,8 +12657,8 @@
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="25"/>
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
@@ -12641,19 +12670,19 @@
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
-      <c r="D135" s="21"/>
-      <c r="E135" s="21"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="21"/>
-      <c r="H135" s="21"/>
-      <c r="I135" s="21"/>
-      <c r="J135" s="27"/>
-      <c r="K135" s="27"/>
-      <c r="L135" s="21"/>
-      <c r="M135" s="21"/>
-      <c r="N135" s="21"/>
-      <c r="O135" s="21"/>
-      <c r="P135" s="21"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="24"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="18"/>
+      <c r="N135" s="18"/>
+      <c r="O135" s="18"/>
+      <c r="P135" s="18"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
@@ -12683,7 +12712,7 @@
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="28"/>
+      <c r="J137" s="25"/>
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
       <c r="M137" s="9"/>
@@ -12700,7 +12729,7 @@
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
-      <c r="I138" s="28"/>
+      <c r="I138" s="25"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
@@ -12722,7 +12751,7 @@
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
-      <c r="M139" s="28"/>
+      <c r="M139" s="25"/>
       <c r="N139" s="9"/>
       <c r="O139" s="9"/>
       <c r="P139" s="9"/>
@@ -12764,9 +12793,9 @@
       <c r="P141" s="9"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="22"/>
+      <c r="A142" s="19"/>
       <c r="B142" s="13"/>
-      <c r="C142" s="22"/>
+      <c r="C142" s="19"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
@@ -12774,7 +12803,7 @@
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
-      <c r="K142" s="28"/>
+      <c r="K142" s="25"/>
       <c r="L142" s="9"/>
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
@@ -12794,7 +12823,7 @@
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
-      <c r="M143" s="28"/>
+      <c r="M143" s="25"/>
       <c r="N143" s="9"/>
       <c r="O143" s="9"/>
       <c r="P143" s="9"/>
@@ -12810,7 +12839,7 @@
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
-      <c r="K144" s="28"/>
+      <c r="K144" s="25"/>
       <c r="L144" s="9"/>
       <c r="M144" s="9"/>
       <c r="N144" s="9"/>
@@ -12821,19 +12850,19 @@
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="21"/>
-      <c r="I145" s="21"/>
-      <c r="J145" s="21"/>
-      <c r="K145" s="21"/>
-      <c r="L145" s="21"/>
-      <c r="M145" s="21"/>
-      <c r="N145" s="21"/>
-      <c r="O145" s="21"/>
-      <c r="P145" s="21"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
+      <c r="M145" s="18"/>
+      <c r="N145" s="18"/>
+      <c r="O145" s="18"/>
+      <c r="P145" s="18"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
@@ -12842,7 +12871,7 @@
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
-      <c r="G146" s="28"/>
+      <c r="G146" s="25"/>
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -12857,25 +12886,25 @@
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21"/>
-      <c r="K147" s="27"/>
-      <c r="L147" s="21"/>
-      <c r="M147" s="21"/>
-      <c r="N147" s="27"/>
-      <c r="O147" s="21"/>
-      <c r="P147" s="27"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="24"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="18"/>
+      <c r="N147" s="24"/>
+      <c r="O147" s="18"/>
+      <c r="P147" s="24"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
-      <c r="D148" s="28"/>
+      <c r="D148" s="25"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
@@ -12885,7 +12914,7 @@
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
       <c r="M148" s="9"/>
-      <c r="N148" s="28"/>
+      <c r="N148" s="25"/>
       <c r="O148" s="9"/>
       <c r="P148" s="9"/>
     </row>
@@ -12899,10 +12928,10 @@
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
-      <c r="J149" s="28"/>
+      <c r="J149" s="25"/>
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
-      <c r="M149" s="28"/>
+      <c r="M149" s="25"/>
       <c r="N149" s="9"/>
       <c r="O149" s="9"/>
       <c r="P149" s="9"/>
@@ -12934,8 +12963,8 @@
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
-      <c r="I151" s="28"/>
-      <c r="J151" s="28"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="25"/>
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
@@ -12944,22 +12973,22 @@
       <c r="P151" s="9"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="21"/>
-      <c r="B152" s="20"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="21"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="21"/>
-      <c r="G152" s="21"/>
-      <c r="H152" s="21"/>
-      <c r="I152" s="21"/>
-      <c r="J152" s="27"/>
-      <c r="K152" s="27"/>
-      <c r="L152" s="21"/>
-      <c r="M152" s="21"/>
-      <c r="N152" s="21"/>
-      <c r="O152" s="21"/>
-      <c r="P152" s="21"/>
+      <c r="A152" s="18"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="24"/>
+      <c r="K152" s="24"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="18"/>
+      <c r="O152" s="18"/>
+      <c r="P152" s="18"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
@@ -13043,13 +13072,13 @@
       <c r="G161" s="9"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="22"/>
+      <c r="A162" s="19"/>
       <c r="B162" s="13"/>
-      <c r="C162" s="22"/>
+      <c r="C162" s="19"/>
       <c r="D162" s="13"/>
-      <c r="E162" s="22"/>
+      <c r="E162" s="19"/>
       <c r="F162" s="13"/>
-      <c r="G162" s="22"/>
+      <c r="G162" s="19"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
@@ -13133,13 +13162,13 @@
       <c r="G171" s="9"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="22"/>
+      <c r="A172" s="19"/>
       <c r="B172" s="13"/>
-      <c r="C172" s="22"/>
+      <c r="C172" s="19"/>
       <c r="D172" s="13"/>
-      <c r="E172" s="22"/>
+      <c r="E172" s="19"/>
       <c r="F172" s="13"/>
-      <c r="G172" s="22"/>
+      <c r="G172" s="19"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
@@ -13223,13 +13252,13 @@
       <c r="G181" s="9"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="22"/>
+      <c r="A182" s="19"/>
       <c r="B182" s="13"/>
-      <c r="C182" s="22"/>
+      <c r="C182" s="19"/>
       <c r="D182" s="13"/>
-      <c r="E182" s="22"/>
+      <c r="E182" s="19"/>
       <c r="F182" s="13"/>
-      <c r="G182" s="22"/>
+      <c r="G182" s="19"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
@@ -13313,13 +13342,13 @@
       <c r="G191" s="9"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="22"/>
+      <c r="A192" s="19"/>
       <c r="B192" s="13"/>
-      <c r="C192" s="22"/>
+      <c r="C192" s="19"/>
       <c r="D192" s="13"/>
-      <c r="E192" s="22"/>
+      <c r="E192" s="19"/>
       <c r="F192" s="13"/>
-      <c r="G192" s="22"/>
+      <c r="G192" s="19"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="9"/>
@@ -13403,13 +13432,13 @@
       <c r="G201" s="9"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="22"/>
+      <c r="A202" s="19"/>
       <c r="B202" s="13"/>
-      <c r="C202" s="22"/>
+      <c r="C202" s="19"/>
       <c r="D202" s="13"/>
-      <c r="E202" s="22"/>
+      <c r="E202" s="19"/>
       <c r="F202" s="13"/>
-      <c r="G202" s="22"/>
+      <c r="G202" s="19"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
@@ -13493,13 +13522,13 @@
       <c r="G211" s="9"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="22"/>
+      <c r="A212" s="19"/>
       <c r="B212" s="13"/>
-      <c r="C212" s="22"/>
+      <c r="C212" s="19"/>
       <c r="D212" s="13"/>
-      <c r="E212" s="22"/>
+      <c r="E212" s="19"/>
       <c r="F212" s="13"/>
-      <c r="G212" s="22"/>
+      <c r="G212" s="19"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="9"/>
@@ -13583,13 +13612,13 @@
       <c r="G221" s="9"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="22"/>
+      <c r="A222" s="19"/>
       <c r="B222" s="13"/>
-      <c r="C222" s="22"/>
+      <c r="C222" s="19"/>
       <c r="D222" s="13"/>
-      <c r="E222" s="22"/>
+      <c r="E222" s="19"/>
       <c r="F222" s="13"/>
-      <c r="G222" s="22"/>
+      <c r="G222" s="19"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="9"/>
@@ -13673,13 +13702,13 @@
       <c r="G231" s="9"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="22"/>
+      <c r="A232" s="19"/>
       <c r="B232" s="13"/>
-      <c r="C232" s="22"/>
+      <c r="C232" s="19"/>
       <c r="D232" s="13"/>
-      <c r="E232" s="22"/>
+      <c r="E232" s="19"/>
       <c r="F232" s="13"/>
-      <c r="G232" s="22"/>
+      <c r="G232" s="19"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="9"/>
@@ -13763,13 +13792,13 @@
       <c r="G241" s="9"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="22"/>
+      <c r="A242" s="19"/>
       <c r="B242" s="13"/>
-      <c r="C242" s="22"/>
+      <c r="C242" s="19"/>
       <c r="D242" s="13"/>
-      <c r="E242" s="22"/>
+      <c r="E242" s="19"/>
       <c r="F242" s="13"/>
-      <c r="G242" s="22"/>
+      <c r="G242" s="19"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="9"/>
@@ -13853,13 +13882,13 @@
       <c r="G251" s="9"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="22"/>
+      <c r="A252" s="19"/>
       <c r="B252" s="13"/>
-      <c r="C252" s="22"/>
+      <c r="C252" s="19"/>
       <c r="D252" s="13"/>
-      <c r="E252" s="22"/>
+      <c r="E252" s="19"/>
       <c r="F252" s="13"/>
-      <c r="G252" s="22"/>
+      <c r="G252" s="19"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="9"/>
@@ -13943,13 +13972,13 @@
       <c r="G261" s="9"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="22"/>
+      <c r="A262" s="19"/>
       <c r="B262" s="13"/>
-      <c r="C262" s="22"/>
+      <c r="C262" s="19"/>
       <c r="D262" s="13"/>
-      <c r="E262" s="22"/>
+      <c r="E262" s="19"/>
       <c r="F262" s="13"/>
-      <c r="G262" s="22"/>
+      <c r="G262" s="19"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="9"/>
@@ -14033,13 +14062,13 @@
       <c r="G271" s="9"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="22"/>
+      <c r="A272" s="19"/>
       <c r="B272" s="13"/>
-      <c r="C272" s="22"/>
+      <c r="C272" s="19"/>
       <c r="D272" s="13"/>
-      <c r="E272" s="22"/>
+      <c r="E272" s="19"/>
       <c r="F272" s="13"/>
-      <c r="G272" s="22"/>
+      <c r="G272" s="19"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="9"/>
@@ -14123,13 +14152,13 @@
       <c r="G281" s="9"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="22"/>
+      <c r="A282" s="19"/>
       <c r="B282" s="13"/>
-      <c r="C282" s="22"/>
+      <c r="C282" s="19"/>
       <c r="D282" s="13"/>
-      <c r="E282" s="22"/>
+      <c r="E282" s="19"/>
       <c r="F282" s="13"/>
-      <c r="G282" s="22"/>
+      <c r="G282" s="19"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="9"/>
@@ -14213,13 +14242,13 @@
       <c r="G291" s="9"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="22"/>
+      <c r="A292" s="19"/>
       <c r="B292" s="13"/>
-      <c r="C292" s="22"/>
+      <c r="C292" s="19"/>
       <c r="D292" s="13"/>
-      <c r="E292" s="22"/>
+      <c r="E292" s="19"/>
       <c r="F292" s="13"/>
-      <c r="G292" s="22"/>
+      <c r="G292" s="19"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="9"/>
@@ -14303,13 +14332,13 @@
       <c r="G301" s="9"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="22"/>
+      <c r="A302" s="19"/>
       <c r="B302" s="13"/>
-      <c r="C302" s="22"/>
+      <c r="C302" s="19"/>
       <c r="D302" s="13"/>
-      <c r="E302" s="22"/>
+      <c r="E302" s="19"/>
       <c r="F302" s="13"/>
-      <c r="G302" s="22"/>
+      <c r="G302" s="19"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="9"/>
